--- a/biology/Botanique/Kar/Kar..xlsx
+++ b/biology/Botanique/Kar/Kar..xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Grigori Silytch Kareline (en russe : Григо́рий Си́лыч Каре́лин, ISO 9 : Grigórij Sílyč Karélin), né en 1801 dans le gouvernement de Saint-Pétersbourg et mort le 29 décembre 1872 à Gouriev (aujourd'hui Atyraou), est un naturaliste et botaniste russe.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Karéline descend d'une famille de la noblesse de la province des environs de Saint-Pétersbourg. Il est orphelin tôt et il est élevé au premier corps de cadets de Saint-Pétersbourg (fondé en 1731). Il commence son service en 1817 comme sous-lieutenant d'artillerie. Le comte Araktcheïev remarque ses capacités et le fait entrer dans sa chancellerie en 1819. Cependant le jeune homme, après avoir plaisanté au sujet du comte avec ses camarades, est muté en février 1822 dans un régiment de Feldjäger stationné à Orenbourg. Il fait alors la connaissance d'un professeur de sciences naturelles de l'université de Kazan, Eduard Friedrich von Eversmann, qui l'initie à cette discipline. Karéline apprend ainsi la botanique, la zoologie et la minéralogie et restera fidèle à son professeur jusqu'à la fin de sa vie. Sa gaieté et sa bonne humeur le font apprécier de tous, du gouverneur-général au simple cosaque.
 Karéline prend part à plusieurs expéditions scientifiques dans la région à partir de 1822. Ainsi en 1823 il part dans la steppe dans un but d'études topographiques. En 1824 et 1825, il se trouve dans les usines d'armement des forteresses de Sibérie afin d'étudier la fabrication des obus. Il en profite pour herboriser et rassembler des connaissances sur la géographie, l'ethnographie, et les sciences naturelles. Sa première véritable expédition de naturaliste s'effectue en 1826, année durant laquelle il donne sa démission de l'armée pour raison de santé. Il est admis à la Société impériale des naturalistes de Moscou en 1828. Il cartographie en 1828-1829  l'ancien khanat de Boukeï (devenu vassal de l'Empire) ce qui lui vaut de l'État le don d'une chevalière ornée de brillants.
@@ -547,7 +561,9 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Karéline passe ses vingt dernières années à Gouriev à ses collections, mais peu avant sa mort un incendie en détruit une grande partie. Cependant ce qui est sauvé est étudié à sa juste valeur par des scientifiques. Il en est ainsi des cartes de l'ancien cours de l'Amou-Daria (1836) et une partie de son herbier qui est conservée à l'université de Saint-Pétersbourg, ainsi qu'une autre au jardin botanique de Saint-Pétersbourg. Un grand nombre de ses manuscrits ont disparu après sa mort.
 Certains ont été légués à la Société des naturalistes de Saint-Pétersbourg et publiés par le professeur Bogdanov dans le tome X du bulletin de la Société des naturalistes de Saint-Pétersbourg (1868), sous l'intitulé Les voyages de Grigori Silytch Karéline en mer Caspienne. On y décrit ses expéditions et on y donne un compte rendu de certains de ses articles. Ses travaux considérés aujourd'hui comme les plus importants concernent la flore de l'Altaï et de la Dzoungarie.
@@ -579,7 +595,9 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Christian Friedrich Lessing a nommé en son honneur un genre d'Asteraceae, Karelinia.
 Espèces botaniques
@@ -618,7 +636,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Путешествия по Каспийскому морю [Voyages en mer Caspienne], "Зап. Русского географического общества" [bulletin de la Société géographique de Russie], 1883, tome 10.</t>
         </is>
@@ -648,7 +668,9 @@
           <t>Famille</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>De son mariage à Orenbourg, Karéline a eu trois filles:
 Alexandra: épouse Kovalenskaïa, éducatrice et auteur de livres pour la jeunesse
